--- a/Predicted price.xlsx
+++ b/Predicted price.xlsx
@@ -387,6162 +387,6162 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.319</v>
+        <v>6.194999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.693</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>9.495000000000001</v>
+        <v>10.856</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>2.59</v>
+        <v>5.038</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>2.795</v>
+        <v>6.734</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>7.321</v>
+        <v>8.087999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>8.068999999999999</v>
+        <v>7.609999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>1.526</v>
+        <v>5.069000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>2.086</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>4.245</v>
+        <v>7.592999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>4.383000000000001</v>
+        <v>5.758000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>2.856</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>3.680000000000001</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1.25</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>2.675</v>
+        <v>7.139</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>5.798000000000001</v>
+        <v>6.953</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>7.888</v>
+        <v>8.587999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1.416</v>
+        <v>4.445</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>3.93</v>
+        <v>17.371</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>3.34</v>
+        <v>8.005999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>3.192</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>1.404</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>2.804</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>1.212</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>2.971</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>1.206</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>1.01</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>4.101</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>3.540999999999999</v>
+        <v>8.988</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>1.899</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>2.292</v>
+        <v>5.654999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>3.08</v>
+        <v>7.173999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1.49</v>
+        <v>4.729</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>8.013999999999999</v>
+        <v>6.194000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>3.247</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>3.494</v>
+        <v>9.476000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>7.020999999999999</v>
+        <v>10.631</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>6.422</v>
+        <v>8.105</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>3.3</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>5.4</v>
+        <v>4.154999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>4.006</v>
+        <v>15.117</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>5.149</v>
+        <v>5.774</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>4.949</v>
+        <v>5.774</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>4.526000000000001</v>
+        <v>14.287</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>4.297000000000001</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>5.412</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>2.39</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>8.344999999999999</v>
+        <v>8.587999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>5.619</v>
+        <v>7.484999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>8.074999999999999</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>3.177999999999999</v>
+        <v>16.802</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>3.59</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>4.192</v>
+        <v>4.893000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>4.943000000000001</v>
+        <v>6.912999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>3.37</v>
+        <v>6.669</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>4.83</v>
+        <v>7.214</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>4.516</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>3.63</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1.78</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>1.239</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>2.25</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>3.443000000000001</v>
+        <v>10.905</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>3.552</v>
+        <v>7.220000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>3.395</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>2.975</v>
+        <v>14.982</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>3.027</v>
+        <v>7.805999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>3.435</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>5.053</v>
+        <v>15.117</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>1.095</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>2.21</v>
+        <v>5.853000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>4.96</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>2.295</v>
+        <v>6.344000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>3.66</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>3.563</v>
+        <v>10.765</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>1.14</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>1.599</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>1.265</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>7.004</v>
+        <v>6.762</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>3.886</v>
+        <v>10.865</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>3.456</v>
+        <v>9.181000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>6.709999999999999</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>8.106999999999999</v>
+        <v>9.014999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>3.969</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>3.315</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>3.816</v>
+        <v>9.837999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>7.390000000000001</v>
+        <v>6.855000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>3.469</v>
+        <v>6.669</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>1.59</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>1.7</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>5.608</v>
+        <v>11.476</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>1.905</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>9.276</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>2.414</v>
+        <v>5.129</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>2.4635</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>1.094</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>3.430000000000001</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>4.436999999999999</v>
+        <v>5.075</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>3.633</v>
+        <v>14.524</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>1.348</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>3.285</v>
+        <v>5.534000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>4.126</v>
+        <v>8.096</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>1.356</v>
+        <v>4.388</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>6.298</v>
+        <v>6.917999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>3.939</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>1.856</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>2.535</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>5.335</v>
+        <v>7.295999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>3.939</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>4.003</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>3.405</v>
+        <v>8.074999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>5.37</v>
+        <v>6.034000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>2.342</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>6.912000000000001</v>
+        <v>9.295</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>2.72</v>
+        <v>7.019</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>2.29</v>
+        <v>4.358000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>6.191000000000001</v>
+        <v>14.223</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>3.975</v>
+        <v>15.893</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>5.859</v>
+        <v>4.505</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>3.426000000000001</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>4.865</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>4.85</v>
+        <v>16.587</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>3.874</v>
+        <v>10.606</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>2.59</v>
+        <v>5.038</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>6.93</v>
+        <v>8.218</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>1.202</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>10.197</v>
+        <v>14.626</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>8.748999999999999</v>
+        <v>8.376999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>7.888</v>
+        <v>8.587999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>3.21</v>
+        <v>8.778</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>2.532</v>
+        <v>8.669999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>3.725000000000001</v>
+        <v>8.788</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>2.717</v>
+        <v>8.631</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>3.17</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>1.395</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>2.92</v>
+        <v>3.742000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>2.69</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>9.913</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>2.33</v>
+        <v>5.139000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>4.115</v>
+        <v>6.124000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>3.25</v>
+        <v>7.786</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>4.42</v>
+        <v>10.881</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>1.7</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>2.105</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>1.19</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>4.04</v>
+        <v>7.986</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>2.56</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>7.337999999999999</v>
+        <v>7.895999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>1.635</v>
+        <v>4.788</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>1.775</v>
+        <v>4.729</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>5.441999999999999</v>
+        <v>14.959</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>2.105</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>1.025</v>
+        <v>3.565</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>4.499000000000001</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>6.904999999999999</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>3.162</v>
+        <v>9.181000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>2.435</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>1.597</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>6.757</v>
+        <v>7.922</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>6.095000000000001</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>5.395</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>3.145</v>
+        <v>8.486999999999998</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>4.42</v>
+        <v>10.881</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>6.180999999999999</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>8.593</v>
+        <v>12.655</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>4.174999999999999</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>6.609999999999999</v>
+        <v>7.711</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>1.71</v>
+        <v>4.729</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>3.978</v>
+        <v>4.024</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>3.806</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>7.355</v>
+        <v>7.209999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>2.483</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>1.275</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>3.286</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>1.674</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>2.135</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>1.128</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>2.435</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>3.237000000000001</v>
+        <v>8.631</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>2.955</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>7.935</v>
+        <v>7.769999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>2.095</v>
+        <v>6.253000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>4.084999999999999</v>
+        <v>8.855</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>2.974</v>
+        <v>16.802</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>5.298</v>
+        <v>6.013</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>1.195</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>5.947</v>
+        <v>5.774</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>1.395</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>1.48</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>1.65</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>4.383000000000001</v>
+        <v>5.758000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>7.334999999999999</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>1.181</v>
+        <v>4.445</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>0.9659999999999999</v>
+        <v>8.496</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>11.537</v>
+        <v>12.312</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>1.954</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>2.778</v>
+        <v>14.982</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>1.535</v>
+        <v>4.729</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>2.443</v>
+        <v>4.578</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>2.4635</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>2.794</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>6.561</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>7.18</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>8.074999999999999</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>11.121</v>
+        <v>14.959</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>2.685</v>
+        <v>8.788</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>13.563</v>
+        <v>14.626</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>0.993</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>2.035</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>2.095</v>
+        <v>6.253000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>6.473000000000001</v>
+        <v>6.769999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>1.495</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>3.315</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>3.405</v>
+        <v>8.275</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>2.211</v>
+        <v>5.069000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>4.084999999999999</v>
+        <v>8.827</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>6.443000000000001</v>
+        <v>6.762</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>3.472</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>2.415</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>2.52</v>
+        <v>5.984</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>3.446</v>
+        <v>5.774</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>1.54</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>7.173</v>
+        <v>5.642000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>3.221</v>
+        <v>7.834999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>6.568</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1.275</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>3.67</v>
+        <v>6.248000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>1.53</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>3.018</v>
+        <v>7.019</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>3.37</v>
+        <v>10.905</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>6.375</v>
+        <v>7.867999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>3.456</v>
+        <v>9.181000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>2.065</v>
+        <v>6.664</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>6.794999999999999</v>
+        <v>7.715000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>5.470000000000001</v>
+        <v>8.805</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>4.245</v>
+        <v>7.734999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>4.83</v>
+        <v>7.214</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>4.726999999999999</v>
+        <v>8.891</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>1.88</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>1.49</v>
+        <v>4.729</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>4.906000000000001</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1.109</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>3.449</v>
+        <v>11.486</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>1.029</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>3.577</v>
+        <v>9.514999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>1.93</v>
+        <v>4.043</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>3.956999999999999</v>
+        <v>14.254</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>1.22</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>2.313</v>
+        <v>6.313000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>3.37</v>
+        <v>6.715000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>2.042</v>
+        <v>6.778999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>4.83</v>
+        <v>7.214</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>1.36</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>6.078</v>
+        <v>7.922</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>3.66</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>7.159000000000001</v>
+        <v>5.642000000000001</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>6.9</v>
+        <v>7.594000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>1.74</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>1.55</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>2.59</v>
+        <v>5.038</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>12.382</v>
+        <v>15.017</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>1.521</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>0.9709999999999999</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>2.585</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>2.4635</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>2.815</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>5.333</v>
+        <v>6.013</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>1.445</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>4.534000000000001</v>
+        <v>4.505</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>2.785</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>2.785</v>
+        <v>4.415</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>3.841</v>
+        <v>9.025</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>2.830000000000001</v>
+        <v>4.374000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>5.951000000000001</v>
+        <v>10.921</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>5.383000000000001</v>
+        <v>6.912999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>5.69</v>
+        <v>6.715000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>2.99</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>3.251</v>
+        <v>3.742000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>1.019</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>2.6635</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>5.156000000000001</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>5.866</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>7.43</v>
+        <v>7.328</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>3.355</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>3.17</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>5.79</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>2.424</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>1.665</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>2.223999999999999</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>6.609999999999999</v>
+        <v>7.794999999999999</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>1.982</v>
+        <v>8.641999999999999</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>2.82</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>2.395</v>
+        <v>5.534000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>7.055</v>
+        <v>7.653</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>2.42</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>3.390000000000001</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>2.717</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>6.290999999999999</v>
+        <v>6.917999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>13.064</v>
+        <v>14.626</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>1.599</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>1.208</v>
+        <v>4.729</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>8.4</v>
+        <v>11.661</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>2.534</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>7.004</v>
+        <v>6.762</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>2.07</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>1.819</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>5.619</v>
+        <v>7.484999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>1.787</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>5.470000000000001</v>
+        <v>8.805</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>5.119000000000001</v>
+        <v>8.285</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>3.666000000000001</v>
+        <v>4.408</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>3.552</v>
+        <v>7.220000000000001</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>2.815</v>
+        <v>3.444</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>9.495000000000001</v>
+        <v>10.856</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>4.141</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>2.2815</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>2.36</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>3.285</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>5.978</v>
+        <v>6.975</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>2.599</v>
+        <v>5.430000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>4.141</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>5.646000000000001</v>
+        <v>3.975</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>3.07</v>
+        <v>3.444</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>6.410000000000001</v>
+        <v>4.389</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>1.425</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>5.69</v>
+        <v>6.715000000000001</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>2.089</v>
+        <v>5.404000000000002</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>2.095</v>
+        <v>6.253000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>3.192</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>2.086</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>1.615</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>1.24</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>5.619</v>
+        <v>7.484999999999999</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>2.783</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>3.251</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>3.978</v>
+        <v>4.019</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>1.665</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>1.445</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>1.735</v>
+        <v>4.374000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>6.361000000000001</v>
+        <v>5.642000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>3.013</v>
+        <v>11.182</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>2.089</v>
+        <v>5.404000000000002</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>1.856</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>3.568</v>
+        <v>9.237</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>2.532</v>
+        <v>8.669999999999998</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>3.219</v>
+        <v>10.471</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>2.981</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>2.885</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>6.601999999999999</v>
+        <v>7.609999999999999</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>5.119000000000001</v>
+        <v>8.285</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>2.605</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>4.516</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>2.42</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>1.795</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>3.22</v>
+        <v>9.976000000000001</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>1.856</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>2.255</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>5.65</v>
+        <v>7.922</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>6.978</v>
+        <v>6.917999999999999</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>9.986000000000001</v>
+        <v>10.841</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>4.356000000000001</v>
+        <v>5.087000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>2.176</v>
+        <v>4.358000000000001</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>4.516</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>8.625</v>
+        <v>7.069</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>2.68</v>
+        <v>3.633999999999999</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>8.090999999999999</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>4.463</v>
+        <v>5.033</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>2.789</v>
+        <v>4.104</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>1.63</v>
+        <v>4.869000000000001</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>6.67</v>
+        <v>7.409999999999999</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>3.411</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>6.378</v>
+        <v>8.092000000000001</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>1.684</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>3.405</v>
+        <v>14.982</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>2.4635</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>2.505</v>
+        <v>6.664</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>7.82</v>
+        <v>7.819999999999999</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>10.336</v>
+        <v>11.591</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>3.430000000000001</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>2.115</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>4.979</v>
+        <v>5.774</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>3.823</v>
+        <v>14.824</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>3.275</v>
+        <v>5.107000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>2.4635</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>2.43</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>2.765</v>
+        <v>9.972999999999999</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>6.789999999999999</v>
+        <v>10.976</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>3.435</v>
+        <v>6.762</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>3.999</v>
+        <v>10.471</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>1.274</v>
+        <v>6.248000000000001</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>3.372</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>2.6</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>3.680000000000001</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>4.19</v>
+        <v>15.089</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>5.08</v>
+        <v>5.824</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>1.089</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>1.65</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>2.189</v>
+        <v>5.097</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>4.893000000000001</v>
+        <v>6.912999999999999</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>7.639</v>
+        <v>12.162</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>1.85</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>3.446</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>2.56</v>
+        <v>4.984</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>2.595</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>7.110000000000001</v>
+        <v>7.214</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>4.755</v>
+        <v>8.788</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>6.148999999999999</v>
+        <v>10.571</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>6.55</v>
+        <v>7.609999999999999</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>1.82</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>2.52</v>
+        <v>4.024</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>4.006</v>
+        <v>9.491</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>5.619</v>
+        <v>7.484999999999999</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>7.709999999999999</v>
+        <v>6.967999999999999</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>5.486</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>4.003</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>5.312</v>
+        <v>5.348000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>6.769</v>
+        <v>10.482</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>3.247</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>4.088</v>
+        <v>9.513</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>2.115</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>1.632</v>
+        <v>5.225</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>3.247</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>1.01</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>4.42</v>
+        <v>10.881</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>3.07</v>
+        <v>3.444</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>1.599</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>4.367999999999999</v>
+        <v>7.999</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>7.574</v>
+        <v>11.458</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>7.134</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>2.912</v>
+        <v>8.719999999999999</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>6.904999999999999</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>2.4</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>3.306999999999999</v>
+        <v>13.544</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>3.285</v>
+        <v>6.355</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>5.342000000000001</v>
+        <v>10.921</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>1.14</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>4.365</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>2.655</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>17.599</v>
+        <v>16.087</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>3.212000000000001</v>
+        <v>3.992000000000001</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>3.734</v>
+        <v>10.606</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>0.925</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>5.064</v>
+        <v>4.505</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>1.735</v>
+        <v>4.374000000000001</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>6.83</v>
+        <v>9.125</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>3.412999999999999</v>
+        <v>13.086</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>6.360000000000001</v>
+        <v>4.389</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>7.468000000000001</v>
+        <v>14.386</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>0.9759999999999998</v>
+        <v>8.996</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>2.593</v>
+        <v>7.986</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>5.144000000000001</v>
+        <v>5.758000000000001</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>8.848000000000003</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>8.266999999999999</v>
+        <v>12.837</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>4.83</v>
+        <v>7.214</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>3.286</v>
+        <v>3.992000000000001</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>4.264</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>2.47</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>2.476</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>2.815</v>
+        <v>3.444</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>3.939</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>4.463</v>
+        <v>5.107000000000001</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>2.991</v>
+        <v>8.899999999999999</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>4.245</v>
+        <v>7.734999999999999</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>8.077999999999999</v>
+        <v>10.985</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>2.4525</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>1.599</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>3.162</v>
+        <v>9.181000000000001</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>2.004</v>
+        <v>4.255</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>3.865</v>
+        <v>4.104</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>2.245</v>
+        <v>4.862</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>5.595000000000001</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>5.848000000000001</v>
+        <v>5.774</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>9.707000000000001</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>1.982</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>4.439000000000001</v>
+        <v>5.408</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>2.33</v>
+        <v>5.139000000000001</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>5.119000000000001</v>
+        <v>8.285</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>1.475</v>
+        <v>4.255</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>2.685</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>1.735</v>
+        <v>4.374000000000001</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>7.2</v>
+        <v>6.769999999999999</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>1.128</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>3.152</v>
+        <v>4.317</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>6.545</v>
+        <v>7.769999999999999</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>1.656</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>1.98</v>
+        <v>4.183</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>2.105</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>1.445</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>6.177000000000001</v>
+        <v>5.623</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>1.765</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>2.115</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>1.36</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>5.619</v>
+        <v>7.342999999999999</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>2.869</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>5.08</v>
+        <v>5.824</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>2.336</v>
+        <v>5.669000000000001</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>3.183000000000001</v>
+        <v>3.389</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>1.239</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>3.81</v>
+        <v>15.098</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>1.48</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>1.18</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>3.192</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>3.84</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>2.63</v>
+        <v>9.676</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>3.388</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>1.33</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>1.74</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>7.355</v>
+        <v>7.209999999999999</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>1.089</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>2.856</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>5.088000000000001</v>
+        <v>17.721</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>2.086</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>5.619</v>
+        <v>7.484999999999999</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>3.476</v>
+        <v>4.624000000000001</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>7.551</v>
+        <v>19.424</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>1.625</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>3.389</v>
+        <v>6.960999999999999</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>1.995</v>
+        <v>4.158</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>2.075</v>
+        <v>8.631</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>1.571</v>
+        <v>8.631</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>1.391</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>2.196</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>3.139</v>
+        <v>5.038</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>3.839</v>
+        <v>8.738</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>1.505</v>
+        <v>3.689000000000001</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>2.294</v>
+        <v>5.224</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>2.197</v>
+        <v>8.653</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>2.69</v>
+        <v>4.725</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>4.453</v>
+        <v>10.347</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>3.903</v>
+        <v>3.714</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>2.429</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>2.881</v>
+        <v>8.778</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>2.405</v>
+        <v>6.677</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>1.53</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>3.446</v>
+        <v>5.774</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>6.959999999999999</v>
+        <v>11.301</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>2.318</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>2.507</v>
+        <v>9.976000000000001</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>2.815</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>6.9</v>
+        <v>7.328</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>2.619</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>2.513</v>
+        <v>5.224</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>3.21</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>2.52</v>
+        <v>6.253000000000001</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>2.674</v>
+        <v>6.514</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>3.64</v>
+        <v>5.654999999999999</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>5.395</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>7.173</v>
+        <v>5.642000000000001</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>6.513</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>4.141</v>
+        <v>7.982000000000001</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>3.649000000000001</v>
+        <v>5.383000000000001</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>3.999</v>
+        <v>9.811</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>2.127</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>8.01</v>
+        <v>13.386</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>2.112</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>1.107</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>5.598</v>
+        <v>14.509</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>1.14</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>1.526</v>
+        <v>5.069000000000001</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>5.145</v>
+        <v>7.328</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>5.08</v>
+        <v>5.824</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>3.613999999999999</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>3.275</v>
+        <v>5.107000000000001</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>1.735</v>
+        <v>4.374000000000001</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>3.247</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>2.52</v>
+        <v>5.984</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>1.59</v>
+        <v>4.374000000000001</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>12.331</v>
+        <v>17.022</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>3.646</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>2.385000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>3.59</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>1.98</v>
+        <v>4.183</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>1.42</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>11.65</v>
+        <v>11.161</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>7.134</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>2.016</v>
+        <v>8.669999999999998</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>1.53</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>8.943000000000001</v>
+        <v>13.156</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>4.039000000000001</v>
+        <v>6.248000000000001</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>6.6</v>
+        <v>7.214</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>3.975</v>
+        <v>15.893</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>2.52</v>
+        <v>5.984</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>3.37</v>
+        <v>6.669</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>2.88</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>2.695</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>2.409</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>3.93</v>
+        <v>10.606</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>2.4625</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>2.175</v>
+        <v>6.734</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>12.188</v>
+        <v>18.273</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>2.483</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>4.784000000000001</v>
+        <v>5.758000000000001</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>1.53</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>2.55</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>2.39</v>
+        <v>6.324</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>1.954</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>3.46</v>
+        <v>3.938999999999999</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>2.61</v>
+        <v>4.608000000000001</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>7.132</v>
+        <v>7.819999999999999</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>5.343999999999999</v>
+        <v>8.653</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>6.927</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>6.298</v>
+        <v>6.917999999999999</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>5.971000000000001</v>
+        <v>7.239</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>6.361000000000001</v>
+        <v>5.642000000000001</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>7.977000000000001</v>
+        <v>11.443</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>5.609</v>
+        <v>10.087</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>2.267</v>
+        <v>5.478000000000001</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>2.815</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>2.575</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>2.856</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>3.215</v>
+        <v>8.927999999999999</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>3.175</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>7.728999999999999</v>
+        <v>7.769999999999999</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>7.404999999999999</v>
+        <v>7.719999999999999</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>4.316</v>
+        <v>9.481</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>3.395</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>1.208</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>4.003</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>13.143</v>
+        <v>12.242</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>7.580999999999999</v>
+        <v>9.295</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>13.563</v>
+        <v>14.626</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>2.195</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>3.155</v>
+        <v>7.786</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>2.25</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>1.34</v>
+        <v>3.669</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>3.881</v>
+        <v>8.805</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>1.37</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>1.441</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>5.866</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>3.4</v>
+        <v>10.095</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>1.48</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>6.525</v>
+        <v>7.467999999999999</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>3.932</v>
+        <v>8.005999999999998</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>6.370000000000001</v>
+        <v>6.912999999999999</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>3.94</v>
+        <v>4.892000000000001</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>5.595000000000001</v>
+        <v>8.913</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>4.734000000000001</v>
+        <v>4.858000000000001</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>4.084999999999999</v>
+        <v>8.855</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>6.140000000000001</v>
+        <v>15.117</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>2.652</v>
+        <v>10.905</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>7.480000000000001</v>
+        <v>7.368</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>1.649</v>
+        <v>3.389</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>5.333</v>
+        <v>6.013</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>2.532</v>
+        <v>8.669999999999998</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>5.757000000000001</v>
+        <v>5.355</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>6.270999999999999</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>4.245</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>4.115</v>
+        <v>6.124000000000001</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>2.857</v>
+        <v>7.042999999999999</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>5.793</v>
+        <v>7.734999999999999</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>2.674</v>
+        <v>6.514</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>2.272</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>4.369</v>
+        <v>10.167</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>1.526</v>
+        <v>5.069000000000001</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>1.404</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>11.65</v>
+        <v>11.161</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>2.475</v>
+        <v>6.729000000000001</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>2.434</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>1.612</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>1.775</v>
+        <v>4.729</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>4.101</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>7.173</v>
+        <v>5.642000000000001</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>5.968000000000002</v>
+        <v>6.964</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>4.987</v>
+        <v>10.921</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>2.565</v>
+        <v>4.725</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>1.282</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>1.687</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>3.293000000000001</v>
+        <v>3.639000000000001</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>2.619</v>
+        <v>5.529000000000001</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>5.595000000000001</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>1.742</v>
+        <v>7.069</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>2.025</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>3.430000000000001</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>2.815</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>7.334999999999999</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>7.56</v>
+        <v>8.045</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>2.362</v>
+        <v>6.124000000000001</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>2.115</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>1.14</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>5.866</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>2.6</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>6.531999999999999</v>
+        <v>17.636</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>4.084999999999999</v>
+        <v>8.855</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>1.788</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>9.476000000000001</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>3.619000000000001</v>
+        <v>4.892000000000001</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>1.445</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>2.299</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>1.71</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>2.21</v>
+        <v>5.708</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>2.636</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>1.63</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>2.555</v>
+        <v>5.795</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>2.443</v>
+        <v>4.578</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>1.193</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>4.265</v>
+        <v>14.287</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>6.731999999999999</v>
+        <v>5.953</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>1.165</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>8.943000000000001</v>
+        <v>14.022</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>6.972</v>
+        <v>11.182</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>3.055</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>2.365</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>1.795</v>
+        <v>8.631</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>2.327</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1.42</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>2.93</v>
+        <v>6.960999999999999</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>4.211</v>
+        <v>14.051</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>3.39</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>3.27</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>7.728999999999999</v>
+        <v>7.769999999999999</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>2.88</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>2.572</v>
+        <v>8.778</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>2.336</v>
+        <v>5.669000000000001</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>4.733</v>
+        <v>10.472</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>5.677</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>3.335</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>4.42</v>
+        <v>10.881</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>2.485</v>
+        <v>4.929</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>1.266</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>4.174999999999999</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>4.084999999999999</v>
+        <v>8.855</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>6.675</v>
+        <v>6.769999999999999</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>3.76</v>
+        <v>6.960999999999999</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>8.608000000000001</v>
+        <v>8.587999999999999</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>4.264</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>3.09</v>
+        <v>7.214</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>3.19</v>
+        <v>4.929</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1.3</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>1.925</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>2.881</v>
+        <v>8.778</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>3.76</v>
+        <v>6.960999999999999</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>4.692</v>
+        <v>10.083</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>4.463</v>
+        <v>5.033</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>4.17</v>
+        <v>10.606</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>1.019</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>2.808</v>
+        <v>8.424999999999999</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>3.237000000000001</v>
+        <v>8.631</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>3.546</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>20.387</v>
+        <v>19.677</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>4.395</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>1.395</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>6.003</v>
+        <v>17.302</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>3.247</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>2.53</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>1.67</v>
+        <v>8.669999999999998</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>3.76</v>
+        <v>6.960999999999999</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>1.041</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>7.466000000000001</v>
+        <v>6.782999999999999</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>1.98</v>
+        <v>4.183</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>1.634</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>6.244999999999999</v>
+        <v>9.125</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>4.438000000000001</v>
+        <v>4.649</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>1.752</v>
+        <v>4.347</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>6.686</v>
+        <v>6.174</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>2.779</v>
+        <v>6.449000000000001</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>1.279</v>
+        <v>5.574000000000001</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>2.851</v>
+        <v>6.059000000000001</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>2.505</v>
+        <v>5.478000000000001</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>2.135</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>6.51</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>6.265</v>
+        <v>8.452999999999999</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>3.4</v>
+        <v>10.095</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>3.552</v>
+        <v>7.220000000000001</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>2.674</v>
+        <v>6.514</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>1.684</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>2.815</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>1.83</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>2.086</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>2.274</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>2.957</v>
+        <v>10.736</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>2.699</v>
+        <v>6.715000000000001</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>13.767</v>
+        <v>15.485</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>2.4525</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>6.9</v>
+        <v>7.594000000000001</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>2.45</v>
+        <v>6.762</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>4.83</v>
+        <v>7.214</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>6.279999999999999</v>
+        <v>6.769999999999999</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>4.463</v>
+        <v>5.033</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>3.3</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>8.221</v>
+        <v>7.988</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>3.37</v>
+        <v>6.669</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>2.33</v>
+        <v>5.139000000000001</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>8.458</v>
+        <v>14.533</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>2.34</v>
+        <v>4.984</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>1.029</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>2.774</v>
+        <v>12.909</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>2.532</v>
+        <v>8.669999999999998</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>2.532</v>
+        <v>8.927999999999999</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>2.94</v>
+        <v>15.098</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>4.036</v>
+        <v>9.025</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>4.125000000000001</v>
+        <v>4.892000000000001</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>7.475</v>
+        <v>15.117</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>7.466000000000001</v>
+        <v>6.782999999999999</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>1.086</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>5.595000000000001</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>3.874</v>
+        <v>10.606</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>4.64</v>
+        <v>17.688</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>4.24</v>
+        <v>15.047</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>2.115</v>
+        <v>5.069000000000001</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>2.4525</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>1.899</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>1.837</v>
+        <v>9.181000000000001</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>3.152</v>
+        <v>3.639000000000001</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>2.259</v>
+        <v>6.729000000000001</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>1.3</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>13.24</v>
+        <v>11.958</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>1.495</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>1.811</v>
+        <v>9.315999999999999</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>4.909000000000001</v>
+        <v>5.758000000000001</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>3.362000000000001</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>6.361000000000001</v>
+        <v>5.642000000000001</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>1.856</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>2.56</v>
+        <v>3.525</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>3.273000000000001</v>
+        <v>3.669</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>9.449999999999999</v>
+        <v>11.971</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>7.456</v>
+        <v>11.726</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>2.92</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>1.825</v>
+        <v>8.631</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>4.045</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>1.282</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>2.115</v>
+        <v>5.069000000000001</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>1.806</v>
+        <v>6.248000000000001</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>2.274</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>5.662000000000001</v>
+        <v>6.425</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>6.279999999999999</v>
+        <v>6.769999999999999</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>3.552</v>
+        <v>7.220000000000001</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>3.175</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>5.955</v>
+        <v>7.587000000000001</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>3.005</v>
+        <v>14.982</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>4.141</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>1.82</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>3.2</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>4.301</v>
+        <v>9.295</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>6.085</v>
+        <v>7.029999999999999</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>2.373</v>
+        <v>7.160999999999999</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>2.064</v>
+        <v>4.929</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>4.934</v>
+        <v>7.173999999999999</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>3.59</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>3.405</v>
+        <v>5.819</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>3.924</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>6.746</v>
+        <v>9.837999999999999</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>2.115</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>4.023999999999999</v>
+        <v>7.786</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>3.809</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>9.308000000000002</v>
+        <v>8.192</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>1.543</v>
+        <v>5.078000000000001</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>1.679</v>
+        <v>4.183</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>3.38</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>3.405</v>
+        <v>8.074999999999999</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>2.315</v>
+        <v>7.844999999999999</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>12.672</v>
+        <v>17.117</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>2.44</v>
+        <v>9.476000000000001</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>3.354</v>
+        <v>17.042</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>1.485</v>
+        <v>4.445</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>3.734999999999999</v>
+        <v>14.251</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>2.898</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>2.85</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>3.535</v>
+        <v>10.471</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>3.841</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>2.075</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>2.115</v>
+        <v>5.069000000000001</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>1.34</v>
+        <v>3.669</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>2.394</v>
+        <v>5.129</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>20.005</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>3.497</v>
+        <v>8.074999999999999</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>3.793</v>
+        <v>17.187</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>2.96</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>2.44</v>
+        <v>9.476000000000001</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>3.713</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>6.675</v>
+        <v>6.837999999999999</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>4.648000000000001</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>7.045</v>
+        <v>14.782</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>2.685</v>
+        <v>5.534000000000001</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>4.264</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>3.431</v>
+        <v>4.043</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>2.691999999999999</v>
+        <v>14.251</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>2.1085</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>2.685</v>
+        <v>5.534000000000001</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>1.208</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>6.770999999999999</v>
+        <v>14.787</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>4.919</v>
+        <v>9.125</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>2.405</v>
+        <v>4.788</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>5.294</v>
+        <v>7.592999999999999</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>2.493</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>4.044</v>
+        <v>5.129</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>3.225</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>6.684</v>
+        <v>12.312</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>6.481999999999999</v>
+        <v>11.289</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>6.436999999999999</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>3.545</v>
+        <v>4.903</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>2.856</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>4.622</v>
+        <v>4.509</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>2.95</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>3.199000000000001</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>1.128</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>2.965</v>
+        <v>6.025</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>2.475</v>
+        <v>6.729000000000001</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>2.086</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>2.373</v>
+        <v>7.160999999999999</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1.6</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>9.087</v>
+        <v>12.677</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>6.567</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>2.27</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>4.255</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>5.029</v>
+        <v>7.157999999999999</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>6.525</v>
+        <v>7.609999999999999</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>6.398999999999999</v>
+        <v>5.774</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>3.025</v>
+        <v>11.726</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>2.1</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>1.405</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>3.939</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>1.67</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>2.73</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>4.244</v>
+        <v>6.912999999999999</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>1.63</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>1.395</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>1.995</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>3.285</v>
+        <v>5.534000000000001</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>3.390000000000001</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1.01</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>2.51</v>
+        <v>16.735</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>4.499000000000001</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>5.931</v>
+        <v>10.921</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>3.716000000000001</v>
+        <v>4.862</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>3.744000000000001</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>1.063</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>2.593</v>
+        <v>7.986</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>2.115</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>2.219</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>2.277</v>
+        <v>9.181000000000001</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>4.363999999999999</v>
+        <v>5.334</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>2.52</v>
+        <v>6.274</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>3.236000000000001</v>
+        <v>4.892000000000001</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>3.948999999999999</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>3.17</v>
+        <v>5.303000000000001</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>5.343000000000001</v>
+        <v>5.213</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>3.881</v>
+        <v>8.805</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>3.275</v>
+        <v>5.107000000000001</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>3.7</v>
+        <v>19.573</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>1.521</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>3.405</v>
+        <v>8.074999999999999</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>14.735</v>
+        <v>13.944</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>5.031000000000001</v>
+        <v>18.816</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>5.995</v>
+        <v>5.848000000000001</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>2.96</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>7.879</v>
+        <v>9.177</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>2.373</v>
+        <v>7.160999999999999</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>3.384</v>
+        <v>3.669</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>3.19</v>
+        <v>4.929</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>1.801</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>1.4</v>
+        <v>3.689000000000001</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>2.966</v>
+        <v>10.205</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>3.85</v>
+        <v>8.855</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>2.443</v>
+        <v>4.578</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>2.299</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>4.599</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>3.357000000000001</v>
+        <v>3.639000000000001</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>5.759</v>
+        <v>6.553</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>6.9</v>
+        <v>7.594000000000001</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>2.01</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>2.761</v>
+        <v>7.385</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>3.660999999999999</v>
+        <v>9.448</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>8.625</v>
+        <v>7.986</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>4.171</v>
+        <v>16.374</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>3.411</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>2.185</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>1.711</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>3.277</v>
+        <v>3.548999999999999</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>3.546</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>2.5</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>3.329</v>
+        <v>4.347</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>3.234999999999999</v>
+        <v>10.786</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>1.605</v>
+        <v>6.664</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>3.4</v>
+        <v>12.849</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>3.803</v>
+        <v>8.184999999999999</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>15.841</v>
+        <v>14.022</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>2.424</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>2.795</v>
+        <v>6.734</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>5.119000000000001</v>
+        <v>8.285</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>3.894000000000001</v>
+        <v>3.669</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>3.6</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>7.505</v>
+        <v>7.769999999999999</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>2.676</v>
+        <v>6.664</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>6.279999999999999</v>
+        <v>6.769999999999999</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>2.4635</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>3.867</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>2.857</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>7.02</v>
+        <v>11.525</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>3.816</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>2.7525</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>3.527</v>
+        <v>7.220000000000001</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>3.247</v>
+        <v>9.611000000000001</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>9.495000000000001</v>
+        <v>10.417</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>4.863</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>1.67</v>
+        <v>4.624000000000001</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>3.962000000000001</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>3.417</v>
+        <v>9.583</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>5.866</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>2.089</v>
+        <v>5.404000000000002</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>3.552</v>
+        <v>7.220000000000001</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>4.264</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>7.659999999999999</v>
+        <v>8.022</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>3.575</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>2.089</v>
+        <v>5.404000000000002</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>6.665000000000001</v>
+        <v>6.769999999999999</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>2.719</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>3.319</v>
+        <v>10.471</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>2.164</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>2.327</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>7.173</v>
+        <v>5.642000000000001</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>2.33</v>
+        <v>5.139000000000001</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>5.298</v>
+        <v>6.013</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>5.595000000000001</v>
+        <v>8.913</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>1.525</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>2.33</v>
+        <v>5.139000000000001</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>2.4635</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>1.815</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>1.193</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>4.218</v>
+        <v>10.921</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>1.644</v>
+        <v>4.648000000000001</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>5.65</v>
+        <v>7.922</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>5.589</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>2.672</v>
+        <v>5.643000000000001</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>3.653</v>
+        <v>11.062</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>7.500999999999999</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>1.735</v>
+        <v>4.374000000000001</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>2.019</v>
+        <v>6.248000000000001</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>4.105</v>
+        <v>11.909</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>3.680000000000001</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>1.265</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>1.282</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>3.713</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>5.02</v>
+        <v>10.921</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>7.321</v>
+        <v>7.867999999999999</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>2.76</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>1.899</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>2.901</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>3.362000000000001</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>4.054</v>
+        <v>4.709</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>2.051</v>
+        <v>3.793</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>3.601</v>
+        <v>8.788</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>2.236</v>
+        <v>5.069000000000001</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>3.965</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>7.019</v>
+        <v>4.635</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>2.575</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>2.235</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>5.470000000000001</v>
+        <v>8.805</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>3.865</v>
+        <v>4.104</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>6.370000000000001</v>
+        <v>6.912999999999999</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>6.422</v>
+        <v>8.105</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>4.388999999999999</v>
+        <v>10.482</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>1.445</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>5.08</v>
+        <v>5.824</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>2.115</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>5.335</v>
+        <v>7.295999999999999</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>6.211</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>4.191999999999999</v>
+        <v>15.314</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>3.888</v>
+        <v>16.617</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>5.931</v>
+        <v>10.921</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>2.583</v>
+        <v>8.669999999999998</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>4.922</v>
+        <v>14.491</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>1.089</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>2.44</v>
+        <v>9.476000000000001</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>4.987</v>
+        <v>10.921</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>3.968</v>
+        <v>7.853</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>3.754</v>
+        <v>9.448</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>3.964000000000001</v>
+        <v>5.774</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>3.458000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>6.638</v>
+        <v>10.607</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>4.433</v>
+        <v>5.139</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>3.757</v>
+        <v>9.583</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>1.82</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>1.214</v>
+        <v>3.609</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>3.635</v>
+        <v>10.471</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>12.08</v>
+        <v>11.742</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>2.561</v>
+        <v>5.643000000000001</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>3.251</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>7.134</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>3.366</v>
+        <v>10.471</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>3.595</v>
+        <v>5.033</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>9.164</v>
+        <v>8.852</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>1.348</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>1.204</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>2.235</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>1.441</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>4.726999999999999</v>
+        <v>8.891</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>4.479</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>1.67</v>
+        <v>8.669999999999998</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>8.200999999999999</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>5.595000000000001</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>4.239</v>
+        <v>11.601</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>2.246</v>
+        <v>6.248000000000001</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>4.689</v>
+        <v>6.953</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>2.508999999999999</v>
+        <v>5.529000000000001</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>6.545</v>
+        <v>7.769999999999999</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>5.793</v>
+        <v>7.734999999999999</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>3.293000000000001</v>
+        <v>3.639000000000001</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>6.308</v>
+        <v>6.975</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>1.735</v>
+        <v>4.374000000000001</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>4.516</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>7.077</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>1.11</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>7.309</v>
+        <v>7.812</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>2.46</v>
+        <v>4.929</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>3.700000000000001</v>
+        <v>4.862</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>0.8960000000000001</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>7.906999999999999</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>1.995</v>
+        <v>4.158</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>4.355</v>
+        <v>16.87</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>3.586000000000001</v>
+        <v>13.544</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>2.4525</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>3.007</v>
+        <v>7.069</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>7.779999999999999</v>
+        <v>11.441</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>6.525</v>
+        <v>7.609999999999999</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>1.239</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>1.526</v>
+        <v>5.069000000000001</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>1.159</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>1.029</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>3.680000000000001</v>
+        <v>3.741000000000001</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>2.394</v>
+        <v>5.129</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>4.421</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>4.915</v>
+        <v>8.175000000000001</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>1.995</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>4.245</v>
+        <v>7.592999999999999</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>5.186999999999999</v>
+        <v>15.314</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>2.219</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>5.470000000000001</v>
+        <v>8.805</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>1.245</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>1.79</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>2.88</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>4.245</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>5.31</v>
+        <v>4.505</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>3.22</v>
+        <v>9.976000000000001</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>5.114</v>
+        <v>9.125</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>3.37</v>
+        <v>6.715000000000001</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>7.935</v>
+        <v>6.355</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>6.484</v>
+        <v>6.423</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>6.55</v>
+        <v>7.609999999999999</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>8.638</v>
+        <v>14.594</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>2.778</v>
+        <v>6.274</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>7.343999999999999</v>
+        <v>4.874000000000001</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>8.314</v>
+        <v>7.872999999999999</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>1.925</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>3.76</v>
+        <v>6.960999999999999</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>5.791</v>
+        <v>4.608000000000001</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>1.34</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>3.245</v>
+        <v>4.347</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>4.515000000000001</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>6.389</v>
+        <v>6.769999999999999</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>2.27</v>
+        <v>5.202</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>8.041</v>
+        <v>9.295</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>2.075</v>
+        <v>4.398000000000001</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>7.089</v>
+        <v>7.008</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>7.851000000000001</v>
+        <v>7.986</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>1.01</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>4.463</v>
+        <v>5.033</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>6.972</v>
+        <v>11.182</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>3.166</v>
+        <v>7.904999999999999</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>2.815</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>3</v>
+        <v>6.762</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>3.682000000000001</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>1.679</v>
+        <v>4.183</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>1.102</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>1.23</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>5.846000000000001</v>
+        <v>14.481</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>3.552</v>
+        <v>7.220000000000001</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>1.07</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>3.965</v>
+        <v>9.291</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>2.55</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>1.575</v>
+        <v>4.594</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>7.906999999999999</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>2.37</v>
+        <v>5.672000000000001</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>2.299</v>
+        <v>4.933000000000001</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>1.01</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>1.04</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>1.142</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>1.282</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>2.327</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>5.312</v>
+        <v>4.948</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>4.691</v>
+        <v>8.788</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>2.822</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>3.37</v>
+        <v>10.905</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>2.259</v>
+        <v>6.779999999999999</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>3.552</v>
+        <v>7.220000000000001</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>3.178</v>
+        <v>3.639000000000001</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>7.355</v>
+        <v>7.068</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>6.9</v>
+        <v>7.594000000000001</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>3.372</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>2.277</v>
+        <v>9.181000000000001</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>6.646000000000001</v>
+        <v>9.125</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>4.42</v>
+        <v>10.881</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>1.64</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>7.421000000000001</v>
+        <v>7.160999999999999</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>2.5</v>
+        <v>5.829000000000001</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>4.675</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>5.866</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>6.73</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>6.452</v>
+        <v>11.409</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>5.170999999999999</v>
+        <v>15.347</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>1.45</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>3.35</v>
+        <v>11.621</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>7.669999999999999</v>
+        <v>14.787</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>2.265000000000001</v>
+        <v>8.452999999999999</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>3.481</v>
+        <v>4.133</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>2.901</v>
+        <v>9.181000000000001</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>3.243</v>
+        <v>4.533</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>2.6</v>
+        <v>6.588000000000001</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>1.21</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>2.635</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>2.4</v>
+        <v>4.347</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>2.775</v>
+        <v>6.734</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>5.788</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>10.978</v>
+        <v>14.787</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>6.389</v>
+        <v>6.769999999999999</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>2.52</v>
+        <v>6.253000000000001</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>4.42</v>
+        <v>10.881</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>3.485</v>
+        <v>12.813</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>2.815</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>3.132</v>
+        <v>3.639000000000001</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>2.6</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>5.835999999999999</v>
+        <v>9.372</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>5.859</v>
+        <v>4.505</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>2.532</v>
+        <v>8.669999999999998</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>3.66</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>1.181</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>3.76</v>
+        <v>6.960999999999999</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>3.274</v>
+        <v>8.657</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>1.982</v>
+        <v>8.641999999999999</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>2.105</v>
+        <v>4.943000000000001</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>3.6</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>2.035</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>2.352</v>
+        <v>6.274</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>7.670999999999999</v>
+        <v>7.185</v>
       </c>
     </row>
   </sheetData>
